--- a/pred_ohlcv/54_21/2019-10-30 WAX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 WAX ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-39944.76840000002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-39944.76840000002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-39453.07630000002</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-39453.07630000002</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-236180.9856</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-258816.4445</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-267601.1831</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-267601.1831</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-237078.2488</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-254560.8891</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-252884.8022</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-252884.8022</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-252874.8022</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-294118.8967</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-294118.8967</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-302552.866</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-208804.6027</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-56663.56659999999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>9688.131500000003</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>197387.4936</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>190353.7281</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>178698.5631</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>178698.5631</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>155619.4399</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>156541.9399</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>156541.9399</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>156541.9399</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>167280.106</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>167280.106</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>167280.106</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>167280.106</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>166226.5322</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>172599.1367</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>172599.1367</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>172599.1367</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>172599.1367</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>176818.2871</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>158278.7523</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>158278.7523</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>165842.0954</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>71308.55469999999</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>71308.55469999999</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-30 WAX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 WAX ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-39944.76840000002</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-39944.76840000002</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-39453.07630000002</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-39453.07630000002</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-236180.9856</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-283811.9516</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-264381.6783</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-263744.4493</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-263744.4493</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-263744.4493</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-263744.4493</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-267601.1831</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-267601.1831</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-267601.1831</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-237078.2488</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-237078.2488</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-237078.2488</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-232200.7293</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-254570.8891</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-254560.8891</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-252884.8022</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-252884.8022</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-252874.8022</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-294118.8967</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-294118.8967</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-302552.866</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-208804.6027</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-56663.56659999999</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>9688.131500000003</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>197387.4936</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>190353.7281</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>178698.5631</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>178698.5631</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>155619.4399</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>156541.9399</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>167280.106</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>166226.5322</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>158278.7523</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
